--- a/Postgres-Features.xlsx
+++ b/Postgres-Features.xlsx
@@ -4,29 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - table" sheetId="1" r:id="rId1"/>
     <sheet name="Partitioning" sheetId="11" r:id="rId2"/>
     <sheet name="Ins-Del-Upd" sheetId="12" r:id="rId3"/>
-    <sheet name="Trigger" sheetId="16" r:id="rId4"/>
-    <sheet name="Foreign keys" sheetId="2" r:id="rId5"/>
-    <sheet name="Transactions" sheetId="3" r:id="rId6"/>
-    <sheet name="Analytic functions" sheetId="4" r:id="rId7"/>
-    <sheet name="Inheritance" sheetId="5" r:id="rId8"/>
-    <sheet name="$ quoting" sheetId="6" r:id="rId9"/>
-    <sheet name="Functions" sheetId="7" r:id="rId10"/>
-    <sheet name="Dynamic SQL" sheetId="20" r:id="rId11"/>
-    <sheet name="PLPGSQL" sheetId="18" r:id="rId12"/>
-    <sheet name="Row-array" sheetId="8" r:id="rId13"/>
-    <sheet name="Sequences" sheetId="9" r:id="rId14"/>
-    <sheet name="Sys columns" sheetId="10" r:id="rId15"/>
-    <sheet name="Rollup" sheetId="13" r:id="rId16"/>
-    <sheet name="Data types" sheetId="14" r:id="rId17"/>
-    <sheet name="Misc" sheetId="15" r:id="rId18"/>
-    <sheet name="Enum" sheetId="19" r:id="rId19"/>
-    <sheet name="Exception" sheetId="21" r:id="rId20"/>
+    <sheet name="Upsert" sheetId="24" r:id="rId4"/>
+    <sheet name="Trigger" sheetId="16" r:id="rId5"/>
+    <sheet name="Foreign keys" sheetId="2" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId7"/>
+    <sheet name="Analytic functions" sheetId="4" r:id="rId8"/>
+    <sheet name="Inheritance" sheetId="5" r:id="rId9"/>
+    <sheet name="$ quoting" sheetId="6" r:id="rId10"/>
+    <sheet name="Functions" sheetId="7" r:id="rId11"/>
+    <sheet name="Dynamic SQL" sheetId="20" r:id="rId12"/>
+    <sheet name="Code generates code" sheetId="23" r:id="rId13"/>
+    <sheet name="PLPGSQL" sheetId="18" r:id="rId14"/>
+    <sheet name="Cursor" sheetId="22" r:id="rId15"/>
+    <sheet name="Row-array" sheetId="8" r:id="rId16"/>
+    <sheet name="Sequences" sheetId="9" r:id="rId17"/>
+    <sheet name="Sys columns" sheetId="10" r:id="rId18"/>
+    <sheet name="Rollup" sheetId="13" r:id="rId19"/>
+    <sheet name="Data types" sheetId="14" r:id="rId20"/>
+    <sheet name="Misc" sheetId="15" r:id="rId21"/>
+    <sheet name="Enum" sheetId="19" r:id="rId22"/>
+    <sheet name="Exception" sheetId="21" r:id="rId23"/>
+    <sheet name="Opt-Pess locking" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="302">
   <si>
     <t>If mixed case used, put double quote around words</t>
   </si>
@@ -1467,9 +1471,6 @@
     <t>Prepare type and table</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>select id, status, curr, dt
 from myarr, unnest (attr)</t>
   </si>
@@ -1498,6 +1499,149 @@
   <si>
     <t>First unnest then array_agg
 Result shows ordered by dt list</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE PROCEDURE del_prt (IN p_parent_table_name text, IN p_del_parent boolean)
+LANGUAGE plpgsql
+AS $$
+DECLARE
+query text ;
+this_partition text ;
+csr CURSOR (parent_table_name text) FOR
+    WITH src as (
+         SELECT base_tb.relname as table_name, pt.relname as partition_name
+         FROM pg_class as base_tb JOIN pg_inherits i ON i.inhparent = base_tb.oid JOIN pg_class pt ON pt.oid = i.inhrelid 
+    )
+    SELECT partition_name 
+    FROM src
+    WHERE table_name = parent_table_name ;
+BEGIN
+    OPEN csr (parent_table_name := p_parent_table_name) ;
+    LOOP
+        FETCH csr into this_partition ;
+        EXIT WHEN NOT FOUND ;
+        query := 'ALTER TABLE ' || quote_ident (p_parent_table_name) || ' DETACH PARTITION ' || quote_ident (this_partition) ;
+        EXECUTE query ;
+        RAISE NOTICE 'Partition % detached', this_partition ;
+        EXECUTE 'DROP TABLE ' || quote_ident (this_partition) ;
+        RAISE NOTICE 'Table % dropped', this_partition ;
+    END LOOP ;
+    CLOSE csr ;
+    IF p_del_parent THEN
+        EXECUTE 'DROP TABLE ' || quote_ident (p_parent_table_name) ;
+        RAISE NOTICE 'Parent table % dropped', p_parent_Table_name ;
+    END IF ;
+    COMMIT ;  
+END
+$$;</t>
+  </si>
+  <si>
+    <t>Deletes the partitioms of a parent table</t>
+  </si>
+  <si>
+    <t>Generated procedure needs $$ quoting with a letter in between</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE PROCEDURE gener (IN p_name text, IN p_chr_table text)
+LANGUAGE plpgsql
+AS $proc$
+DECLARE
+l_proc text ;
+l_col text ;
+l_row text ;
+csr CURSOR FOR
+  SELECT column_name,
+         data_type,
+         column_default,
+         is_nullable,
+         character_maximum_length,
+         numeric_precision
+   FROM  information_schema.columns
+   WHERE table_name = p_name
+     AND is_nullable = 'YES'
+   ORDER BY ordinal_position
+;
+BEGIN
+    OPEN csr ;
+    l_row := 'row (' ;
+    LOOP
+        FETCH csr INTO l_col ;
+     EXIT WHEN NOT FOUND ;
+     l_row := l_row || l_col || ', ' ; 
+ END LOOP ;
+    CLOSE csr ;
+    l_row := substring (l_row, 1, length (l_row) - 2) ;
+    l_row := l_row || ')' ;
+    l_proc := 'create or replace function generated ()' || chr (10) ||
+              'returns boolean' || chr (10) ||
+              'as $p$' || chr (10) ||
+              'declare' || chr (10) ||
+              '    l_result integer ;' || chr (10) ||
+              'begin' || chr (10) ||
+              '    select 1 from ' || quote_ident (p_chr_table)  || ' where ' || l_row || ' is not null into l_result ;' || chr (10) || 
+              '    if l_result is null then' || chr (10) ||
+              '        return false ;' || chr (10) ||
+              '    else' || chr (10) ||
+              '        return true ;' || chr (10) ||
+              '    end if ;' || chr (10) ||
+              'end ;' || chr (10) ||
+              '$p$ ' || chr (10) ||
+              'language plpgsql ;' || chr (10) ;
+    EXECUTE l_proc ;
+    RAISE NOTICE 'Proc created' ;
+    COMMIT ;  
+END ;
+$proc$ ;</t>
+  </si>
+  <si>
+    <t>do $$
+begin 
+    insert into testtable (id, somedata) values (2, 'Joe') ;
+exception when unique_violation then
+    update testtable set somedata = 'Joe' where id = 2 ;
+end $$ ;</t>
+  </si>
+  <si>
+    <t>With exception handling</t>
+  </si>
+  <si>
+    <t>insert into dummy (id, name, size) values (1,  'new_name', 3)
+on conflict on constraint dummy_pkey
+do update set name = 'new_name', size = 4 ;</t>
+  </si>
+  <si>
+    <t>With ON CONFLICT</t>
+  </si>
+  <si>
+    <t>BEGIN;
+CREATE TEMPORARY TABLE newvals(id integer, somedata text);
+INSERT INTO newvals(id, somedata) VALUES (2, 'Joe'), (3, 'Alan');
+LOCK TABLE testtable IN EXCLUSIVE MODE;
+UPDATE testtable
+SET somedata = newvals.somedata
+FROM newvals
+WHERE newvals.id = testtable.id;
+INSERT INTO testtable
+SELECT newvals.id, newvals.somedata
+FROM newvals
+LEFT OUTER JOIN testtable ON (testtable.id = newvals.id)
+WHERE testtable.id IS NULL;
+COMMIT;</t>
+  </si>
+  <si>
+    <t>With two step update/insert and locking</t>
+  </si>
+  <si>
+    <t>Lost update</t>
+  </si>
+  <si>
+    <t>Optimistic locking</t>
+  </si>
+  <si>
+    <t>Pessimistic locking</t>
+  </si>
+  <si>
+    <t>Both locks the table. Updates blocked until other session commits or rolls back</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1674,6 +1818,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,6 +1836,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="257175"/>
+          <a:ext cx="10058400" cy="5330587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="10058400" cy="5375831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>183681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="10058400" cy="5327181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,18 +2240,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.69140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="3"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="145.75">
+    <row r="1" spans="1:2" ht="150">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -1975,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.75">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1983,7 +2267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58.3">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -1999,137 +2283,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.69140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="3"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="119.25" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="233.15">
-      <c r="A8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="58.3">
-      <c r="A9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="87.45">
-      <c r="A10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="364.3">
-      <c r="A11" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.15">
-      <c r="A13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29.15">
-      <c r="A14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15">
-      <c r="A16" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.15">
-      <c r="A17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>248</v>
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2139,30 +2342,137 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.53515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="233.15">
+    <row r="1" spans="1:2" ht="119.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="262.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="240">
+      <c r="A8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="90">
+      <c r="A10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="375">
+      <c r="A11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2175,29 +2485,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="110" style="2" customWidth="1"/>
-    <col min="2" max="2" width="70.84375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6">
+    <row r="1" spans="1:2" ht="255">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="335.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="270">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2207,213 +2517,58 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.3828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.3046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.15">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.15">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.15">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.15">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="171.9" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29.15">
-      <c r="A21" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="247.75">
-      <c r="A22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>284</v>
+    <row r="1" spans="1:2" ht="409.5">
+      <c r="A1" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.69140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.15234375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="110" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="72.900000000000006">
+    <row r="1" spans="1:2" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58.3">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="345">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.15">
-      <c r="A4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15">
-      <c r="A5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2423,14 +2578,250 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="120.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.5">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="171.95" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="255">
+      <c r="A22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="75">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="3"/>
-    <col min="2" max="2" width="67.3046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="67.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="81.75" customHeight="1">
@@ -2449,7 +2840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.75">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2465,7 +2856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="58.3">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2481,7 +2872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72.900000000000006">
+    <row r="7" spans="1:2" ht="90">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -2501,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2509,13 +2900,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.3046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.84375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="174.9">
+    <row r="1" spans="1:2" ht="180">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2523,7 +2914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58.3">
+    <row r="2" spans="1:2" ht="60">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -2531,7 +2922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58.3">
+    <row r="3" spans="1:2" ht="60">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -2539,385 +2930,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="116.6">
+    <row r="4" spans="1:2" ht="135">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
-  <cols>
-    <col min="1" max="1" width="48.15234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.15234375" style="2"/>
-    <col min="3" max="3" width="35.69140625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.75">
-      <c r="A22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="29.15">
-      <c r="A24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.75">
-      <c r="A25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="43.75">
-      <c r="A26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="29.15">
-      <c r="A27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.75">
-      <c r="A32" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
-  <cols>
-    <col min="1" max="1" width="35.15234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.84375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58.3">
-      <c r="A2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.900000000000006">
-      <c r="A4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="58.3">
-      <c r="A6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="72.900000000000006">
-      <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.75">
-      <c r="A10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.75">
-      <c r="A13" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
-  <cols>
-    <col min="1" max="1" width="67.53515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.3046875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.75">
-      <c r="A3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +2949,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68" style="3" customWidth="1"/>
     <col min="2" max="2" width="35" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="87.45">
+    <row r="1" spans="1:2" ht="90">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="116.6">
+    <row r="3" spans="1:2" ht="120">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58.3">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="145.75">
+    <row r="6" spans="1:2" ht="150">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.15">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="3" t="s">
         <v>100</v>
       </c>
@@ -2993,17 +3011,390 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45">
+      <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45">
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.84375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.84375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.15">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="2" t="s">
         <v>257</v>
       </c>
@@ -3011,7 +3402,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -3019,7 +3410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.15" thickTop="1" thickBot="1">
+    <row r="3" spans="1:2" ht="30" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -3027,7 +3418,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.75" thickBot="1">
+    <row r="4" spans="1:2" ht="29.25" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>263</v>
       </c>
@@ -3035,7 +3426,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.75" thickBot="1">
+    <row r="5" spans="1:2" ht="43.5" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>265</v>
       </c>
@@ -3043,7 +3434,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.75" thickBot="1">
+    <row r="6" spans="1:2" ht="29.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>267</v>
       </c>
@@ -3051,7 +3442,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.75" thickBot="1">
+    <row r="7" spans="1:2" ht="43.5" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>269</v>
       </c>
@@ -3059,7 +3450,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.75" thickBot="1">
+    <row r="8" spans="1:2" ht="29.25" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>271</v>
       </c>
@@ -3075,7 +3466,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.75" thickBot="1">
+    <row r="10" spans="1:2" ht="43.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>275</v>
       </c>
@@ -3083,7 +3474,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.75" thickBot="1">
+    <row r="11" spans="1:2" ht="43.5" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>277</v>
       </c>
@@ -3091,7 +3482,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="42.9" thickBot="1">
+    <row r="12" spans="1:2" ht="43.5" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>279</v>
       </c>
@@ -3099,9 +3490,51 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickTop="1"/>
+    <row r="13" spans="1:2" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3113,10 +3546,10 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.3828125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.53515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="87" customHeight="1">
@@ -3127,12 +3560,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.15">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="131.15">
+    <row r="3" spans="1:2" ht="135">
       <c r="A3" s="2" t="s">
         <v>170</v>
       </c>
@@ -3140,7 +3573,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="131.15">
+    <row r="4" spans="1:2" ht="135">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -3148,7 +3581,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="131.15">
+    <row r="5" spans="1:2" ht="135">
       <c r="A5" s="2" t="s">
         <v>174</v>
       </c>
@@ -3163,54 +3596,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="93.3828125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="47" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="262.3">
+    <row r="1" spans="1:2" ht="90">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>294</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="255">
+      <c r="A3" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="174.9">
-      <c r="A5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72.900000000000006">
-      <c r="A6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3222,59 +3639,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.3828125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.69140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="93.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="180.75" customHeight="1">
+    <row r="1" spans="1:2" ht="270">
       <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="72.900000000000006">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87.45">
-      <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.900000000000006">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="145.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="180">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="87.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3284,18 +3694,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="180.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="150">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.84375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.3828125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.84375" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="174.9">
+    <row r="1" spans="1:3" ht="180">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
@@ -3311,7 +3785,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="87.45">
+    <row r="3" spans="1:3" ht="105">
       <c r="A3" s="2" t="s">
         <v>212</v>
       </c>
@@ -3319,7 +3793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="87.45">
+    <row r="4" spans="1:3" ht="105">
       <c r="A4" s="2" t="s">
         <v>210</v>
       </c>
@@ -3327,7 +3801,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="102">
+    <row r="5" spans="1:3" ht="105">
       <c r="A5" s="2" t="s">
         <v>211</v>
       </c>
@@ -3340,7 +3814,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="116.6">
+    <row r="7" spans="1:3" ht="120">
       <c r="A7" s="2" t="s">
         <v>216</v>
       </c>
@@ -3348,7 +3822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="189.45">
+    <row r="8" spans="1:3" ht="195">
       <c r="A8" s="2" t="s">
         <v>227</v>
       </c>
@@ -3356,7 +3830,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="58.3">
+    <row r="9" spans="1:3" ht="60">
       <c r="A9" s="2" t="s">
         <v>231</v>
       </c>
@@ -3369,7 +3843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="145.75">
+    <row r="11" spans="1:3" ht="150">
       <c r="A11" s="2" t="s">
         <v>223</v>
       </c>
@@ -3377,7 +3851,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="145.75">
+    <row r="12" spans="1:3" ht="150">
       <c r="A12" s="2" t="s">
         <v>224</v>
       </c>
@@ -3391,16 +3865,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.3046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.3046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="60.75" customHeight="1">
@@ -3411,41 +3885,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.75">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
-  <cols>
-    <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63.69140625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="145.75">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3455,56 +3900,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.15">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
+    <row r="1" spans="1:3" ht="150">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Postgres-Features.xlsx
+++ b/Postgres-Features.xlsx
@@ -4,33 +4,35 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - table" sheetId="1" r:id="rId1"/>
     <sheet name="Partitioning" sheetId="11" r:id="rId2"/>
     <sheet name="Ins-Del-Upd" sheetId="12" r:id="rId3"/>
     <sheet name="Upsert" sheetId="24" r:id="rId4"/>
-    <sheet name="Trigger" sheetId="16" r:id="rId5"/>
-    <sheet name="Foreign keys" sheetId="2" r:id="rId6"/>
-    <sheet name="Transactions" sheetId="3" r:id="rId7"/>
-    <sheet name="Analytic functions" sheetId="4" r:id="rId8"/>
-    <sheet name="Inheritance" sheetId="5" r:id="rId9"/>
-    <sheet name="$ quoting" sheetId="6" r:id="rId10"/>
-    <sheet name="Functions" sheetId="7" r:id="rId11"/>
-    <sheet name="Dynamic SQL" sheetId="20" r:id="rId12"/>
-    <sheet name="Code generates code" sheetId="23" r:id="rId13"/>
-    <sheet name="PLPGSQL" sheetId="18" r:id="rId14"/>
-    <sheet name="Cursor" sheetId="22" r:id="rId15"/>
-    <sheet name="Row-array" sheetId="8" r:id="rId16"/>
-    <sheet name="Sequences" sheetId="9" r:id="rId17"/>
-    <sheet name="Sys columns" sheetId="10" r:id="rId18"/>
-    <sheet name="Rollup" sheetId="13" r:id="rId19"/>
-    <sheet name="Data types" sheetId="14" r:id="rId20"/>
-    <sheet name="Misc" sheetId="15" r:id="rId21"/>
-    <sheet name="Enum" sheetId="19" r:id="rId22"/>
-    <sheet name="Exception" sheetId="21" r:id="rId23"/>
-    <sheet name="Opt-Pess locking" sheetId="25" r:id="rId24"/>
+    <sheet name="Returnig clause" sheetId="26" r:id="rId5"/>
+    <sheet name="Trigger" sheetId="16" r:id="rId6"/>
+    <sheet name="Foreign keys" sheetId="2" r:id="rId7"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId8"/>
+    <sheet name="Analytic functions" sheetId="4" r:id="rId9"/>
+    <sheet name="Inheritance" sheetId="5" r:id="rId10"/>
+    <sheet name="$ quoting" sheetId="6" r:id="rId11"/>
+    <sheet name="Functions" sheetId="7" r:id="rId12"/>
+    <sheet name="Dynamic SQL" sheetId="20" r:id="rId13"/>
+    <sheet name="Code generates code" sheetId="23" r:id="rId14"/>
+    <sheet name="PLPGSQL" sheetId="18" r:id="rId15"/>
+    <sheet name="Cursor" sheetId="22" r:id="rId16"/>
+    <sheet name="Row-array" sheetId="8" r:id="rId17"/>
+    <sheet name="Sequences" sheetId="9" r:id="rId18"/>
+    <sheet name="Sys columns" sheetId="10" r:id="rId19"/>
+    <sheet name="Rollup" sheetId="13" r:id="rId20"/>
+    <sheet name="Data types" sheetId="14" r:id="rId21"/>
+    <sheet name="Misc" sheetId="15" r:id="rId22"/>
+    <sheet name="Enum" sheetId="19" r:id="rId23"/>
+    <sheet name="Exception" sheetId="21" r:id="rId24"/>
+    <sheet name="Opt-Pess locking" sheetId="25" r:id="rId25"/>
+    <sheet name="JSON" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="336">
   <si>
     <t>If mixed case used, put double quote around words</t>
   </si>
@@ -1642,6 +1644,253 @@
   </si>
   <si>
     <t>Both locks the table. Updates blocked until other session commits or rolls back</t>
+  </si>
+  <si>
+    <t>CREATE TABLE sample (
+   id        bigserial PRIMARY KEY,
+   lastname  varchar(20),
+   firstname varchar(20)
+);
+CREATE TABLE sample1(
+   user_id    bigserial PRIMARY KEY,
+   sample_id  bigint REFERENCES sample,
+   adddetails varchar(20)
+);
+CREATE TABLE sample2(
+   id      bigserial PRIMARY KEY,
+   user_id bigint REFERENCES sample1,
+   value   varchar(10)
+);</t>
+  </si>
+  <si>
+    <t>Create tables</t>
+  </si>
+  <si>
+    <t>Solution 1</t>
+  </si>
+  <si>
+    <t>Solution 2</t>
+  </si>
+  <si>
+    <t>WITH data (firstname, lastname, adddetails, value) AS (
+   VALUES (text 'fai55', text 'shaggk', text 'ss', text 'ss2') 
+   )
+, ins1 AS (
+   INSERT INTO sample (firstname, lastname)
+   SELECT firstname, lastname FROM data 
+   ON     CONFLICT DO NOTHING  
+   RETURNING firstname, lastname, id AS sample_id
+   )
+, ins2 AS (
+   INSERT INTO sample1 (sample_id, adddetails)
+   SELECT sample_id, adddetails
+   FROM   data
+   JOIN   ins1 USING (firstname, lastname)
+   RETURNING sample_id, user_id
+   )
+INSERT INTO sample2 (user_id, value)
+SELECT user_id, value
+FROM   data
+JOIN   ins1 USING (firstname, lastname)
+JOIN   ins2 USING (sample_id) ;</t>
+  </si>
+  <si>
+    <t>with sample_ids as (
+  insert into sample (firstname, lastname)
+  values ('fai55','shaggk')
+  RETURNING id
+), sample1_ids as (
+  insert into sample1 (id, adddetails)
+  select id,'ss'
+  from   sample_ids
+  RETURNING id, user_id
+)
+insert into sample2(id, user_id, value)
+select id, user_id, 'val'
+from   sample1_ids
+RETURNING id, user_id ;</t>
+  </si>
+  <si>
+    <t>create table test_json ( 
+ID serial not null primary key, 
+info json not null 
+) ; 
+INSERT INTO test_json (info)
+VALUES ( 
+        '{"customer": "John Doe", "items": {"product": "Beer", "qty": 6}}'
+       ),      
+       (
+        '{"customer": "Josh William", "items": {"product": "Toy Car ", "qty": 1}}'
+       ),
+       (
+         '{"customer": "Hary Clark", "items": {"product": "Toy Train", "qty": 2}}' 
+       ),
+       ( 
+         '{"customer": "Lily Bush", "items": {"product": "Diaper", "qty": 24}}'
+       ) 
+;</t>
+  </si>
+  <si>
+    <t>Set the data up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT info FROM test_json ;
+SELECT info -&gt; 'customer' FROM test_json ;
+SELECT info -&gt; 'customer' as customer,
+       info -&gt; 'items' -&gt;&gt; 'product' as product 
+FROM test_json 
+ORDER BY product ; </t>
+  </si>
+  <si>
+    <t>Get JSON object field by key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT info -&gt;&gt; 'customer' as customer,
+       info -&gt; 'items' -&gt;&gt; 'product' AS product
+FROM test_json 
+WHERE CAST (info -&gt; 'items' -&gt;&gt; 'qty' AS INTEGER) = 2 ;
+SELECT json_each (info) 
+FROM   test_json ;
+SELECT json_each_text (info) -- Same but also converts them text 
+FROM test_json ; 
+SELECT json_object_keys (info-&gt;'items') 
+FROM test_json ; </t>
+  </si>
+  <si>
+    <t>Get customer who bought more than 2 items
+Expands outermost object into key-value pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH reports (data) AS ( -- Flattens 
+    VALUES ( 
+         '{"objects":[{"src":"foo.png"}, {"src":"bar.png"}], "background" : "background.png"}'::json 
+    ),
+    (
+         '{"objects":[{"src":"foo2.png"}, {"src":"bar2.png"}], "background":"foreground.png"}'::json
+    )
+)
+SELECT * 
+FROM reports r, json_array_elements (r.data#&gt;'{objects}') obj
+; 
+WITH reports (data) AS ( 
+VALUES ( 
+         '{"objects":[{"src":"foo.png"}, {"src":"bar.png"}], "background" : "background.png"}'::json 
+    ),
+    (
+         '{"objects":[{"src":"foo2.png"}, {"src":"bar2.png"}], "background":"foreground.png"}'::json
+    )
+)
+SELECT data -&gt;'objects'-&gt;&gt;1 as val -- Second item in the collect1on (bar and.bar2) 
+FROM reports r 
+; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to handle collections </t>
+  </si>
+  <si>
+    <t>create table test_json2 (id integer, info json) ; 
+insert into test_json2 (id, info) 
+values (1, '{"persons":[{"name":"Zsurni"}, {"name":"Csacsi"}, {"name":"Daisy"}], "Address":"Miskolc"}'::json), 
+       (2, '{"persons":[{"name": "Kati"}, {"name":"Floki"}, {"name": "Misi"}], "Address":"Budapest"}'::json),
+       (3, '{"persons":[{"name":"Agi"}, {"name":"Pityu"}, {"name":"Prezli"}], "Address":"Eger"}'::json) ;</t>
+  </si>
+  <si>
+    <t>Operators: setup data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- -&gt; 
+SELECT info -&gt; 'Address' FROM test_json2 ; -- Get element by key. Returns all addresses
+SELECT info -&gt; 'persons' -&gt;&gt; 2 FROM test_json2 ; -- Select all dogs. 2 by index in the list collection 
+-- -&gt;&gt; 
+SELECT info -&gt; 'persons'-&gt;&gt; 0 FROM test_json2 -- Select all ladies as text 
+-- #&gt; 
+SELECT info -&gt;'persons'-&gt;0 #&gt; '{name}' FROM test_json2 ; -- Get ladies names at specified path (name) 
+SELECT info #&gt;&gt; '{persons, 2}' FROM test_json2 ; -- All the dog names 
+-- @&gt; 
+SELECT info-&gt;'persons'::jsonb @&gt; '{"Address":"Eger"}'::jsonb FROM test_json2 ; -- Does Address Eger exist in JSON? 
+-- ?
+SELECT (info -&gt; 'persons'-&gt;0)::jsonb ? 'name' FROM test_json2 ; -- name exists as top level key in JSON value 
+-- ?|
+SELECT (info)::jsonb ?| array ['Address', 'Anythingxxx'] FROM test_json2 ; -- Do any of these key(s) in the array exist as top level keys  
+-- ?&amp; 
+SELECT (info)::jsonb ?&amp; array ['Address', 'Anythingxxx'] FROM test_json2 ; -- Do all of these key(s) in the array exist as top level keys 
+-- || 
+SELECT (info -&gt; 'persons' -&gt; 0 #&gt; '{name}')::jsonb || (info -&gt; 'persons' -&gt; 1 #&gt; '{name}')::jsonb FROM test_json2 ; -- Concats ladies and boys 
+</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Delete dupes</t>
+  </si>
+  <si>
+    <t>DELETE FROM tbl_scores
+WHERE student_id IN
+(SELECT student_id
+ FROM
+     (SELECT student_id,
+      ROW_NUMBER() OVER(PARTITION BY student_id
+      ORDER BY&amp;amp;amp;nbsp; student_id) AS row_num
+ FROM tbl_scores) t
+ WHERE t.row_num &gt; 1) ;</t>
+  </si>
+  <si>
+    <t>SELECT student_id, score
+FROM tbl_scores
+ORDER BY student_id
+FETCH FIRST ROW ONLY ;</t>
+  </si>
+  <si>
+    <t>Fetch only first row</t>
+  </si>
+  <si>
+    <t>Natural join</t>
+  </si>
+  <si>
+    <t>SELECT * FROM tbl_students NATURAL JOIN tbl_scores;</t>
+  </si>
+  <si>
+    <t>Join based on matching column names</t>
+  </si>
+  <si>
+    <t>Create table as select * from another table</t>
+  </si>
+  <si>
+    <t>SELECT student_id, score
+INTO tbl_top_students
+FROM tbl_scores
+WHERE score &gt; AVG(score);</t>
+  </si>
+  <si>
+    <t>No need for group by</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>SELECT random() * 100 + 1 AS RAND_1_100;</t>
+  </si>
+  <si>
+    <t>Table size</t>
+  </si>
+  <si>
+    <t>SELECT relname, relpages FROM pg_class
+ORDER BY relpages DESC limit 1;</t>
+  </si>
+  <si>
+    <t>Missing values in a sequence</t>
+  </si>
+  <si>
+    <t>SELECT  empno + 1
+FROM emp a
+WHERE   NOT EXISTS
+(
+SELECT  NULL
+FROM emp b
+WHERE   a.empno = b.empno + 1
+)
+ORDER BY empno ;</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2282,6 +2531,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="150">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2340,11 +2618,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2480,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2515,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2541,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2576,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2601,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2761,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2812,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2889,57 +3167,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="46.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="180">
-      <c r="A1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60">
-      <c r="A2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="135">
-      <c r="A4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3011,6 +3238,57 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="180">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60">
+      <c r="A3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3236,18 +3514,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3291,46 +3567,122 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="90">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
       <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="90">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="135">
+      <c r="A17" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="135">
+      <c r="A27" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3382,7 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3496,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -3535,6 +3887,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="81.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="285">
+      <c r="A1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105">
+      <c r="A2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="195">
+      <c r="A3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="405">
+      <c r="A4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120">
+      <c r="A5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5">
+      <c r="A6" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3637,6 +4053,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="255">
+      <c r="A1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="315">
+      <c r="A3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3692,7 +4150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3756,7 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3865,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3896,33 +4354,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="150">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>